--- a/input/raw_data/final_inclusion/included_paper_data.xlsx
+++ b/input/raw_data/final_inclusion/included_paper_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/final_inclusion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{359767AD-1C1C-4E41-AA43-5F54A5AD6727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0ACD8F3E-7A97-7440-A6E2-88E540B6663F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20560" yWindow="13100" windowWidth="20580" windowHeight="12240" xr2:uid="{9048CFBC-1539-6C42-8D80-67261DE2789D}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="665">
   <si>
     <t>Study_ID</t>
   </si>
@@ -940,18 +940,6 @@
     <t>10.5812/ijhrba-134720</t>
   </si>
   <si>
-    <t>Jaini, Paresh A.; Haliburton, James; Rush, A. John</t>
-  </si>
-  <si>
-    <t>Management challenges of recurrent foreign body ingestions in a psychiatric patient: a case report</t>
-  </si>
-  <si>
-    <t>Journal Of Psychiatric Practice</t>
-  </si>
-  <si>
-    <t>10.1097/pra.0000000000000694</t>
-  </si>
-  <si>
     <t>Calini, Giacomo; Ortolan, Naima; Battistella, Claudio; Marino, Marco; Bresadola, Vittorio; Terrosu, Giovanni</t>
   </si>
   <si>
@@ -1216,9 +1204,6 @@
     <t>Blaho, Kari E.; Merigian, Kevin S.; Winbery, Stephen L.; Park, Lynda J.; Cockrell, Mike</t>
   </si>
   <si>
-    <t>Retrospective Chart Review</t>
-  </si>
-  <si>
     <t>Journal of Emergency Medicine</t>
   </si>
   <si>
@@ -1994,6 +1979,42 @@
   </si>
   <si>
     <t>Egypt</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>UAE</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>10.52916/jmrs244144</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Foreign Body Ingestions in the Emergency Department: Case Reports and Review of Treatment</t>
+  </si>
+  <si>
+    <t>10.1016/S0736-4679(97)00229-1</t>
+  </si>
+  <si>
+    <t>Not available.</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Singapore</t>
   </si>
 </sst>
 </file>
@@ -2854,10 +2875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D9C861-6E8A-1F44-8AE5-524FEEA61607}">
-  <dimension ref="A1:H167"/>
+  <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2886,10 +2907,10 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="H1" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2912,10 +2933,10 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="H2" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2938,10 +2959,10 @@
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="H3" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2964,10 +2985,10 @@
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H4" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2990,10 +3011,10 @@
         <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H5" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -3016,10 +3037,10 @@
         <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="H6" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3042,10 +3063,10 @@
         <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="H7" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -3068,10 +3089,10 @@
         <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H8" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3094,10 +3115,10 @@
         <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H9" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3120,10 +3141,10 @@
         <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="H10" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3146,10 +3167,10 @@
         <v>45</v>
       </c>
       <c r="G11" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H11" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -3172,10 +3193,10 @@
         <v>49</v>
       </c>
       <c r="G12" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="H12" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -3198,10 +3219,10 @@
         <v>53</v>
       </c>
       <c r="G13" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H13" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -3224,10 +3245,10 @@
         <v>57</v>
       </c>
       <c r="G14" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H14" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -3250,10 +3271,10 @@
         <v>61</v>
       </c>
       <c r="G15" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H15" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -3276,10 +3297,10 @@
         <v>65</v>
       </c>
       <c r="G16" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="H16" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -3302,10 +3323,10 @@
         <v>69</v>
       </c>
       <c r="G17" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="H17" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -3328,10 +3349,10 @@
         <v>72</v>
       </c>
       <c r="G18" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H18" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -3354,10 +3375,10 @@
         <v>75</v>
       </c>
       <c r="G19" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="H19" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -3380,10 +3401,10 @@
         <v>79</v>
       </c>
       <c r="G20" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="H20" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -3406,10 +3427,10 @@
         <v>83</v>
       </c>
       <c r="G21" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H21" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -3432,10 +3453,10 @@
         <v>87</v>
       </c>
       <c r="G22" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H22" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -3458,10 +3479,10 @@
         <v>91</v>
       </c>
       <c r="G23" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="H23" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -3484,10 +3505,10 @@
         <v>95</v>
       </c>
       <c r="G24" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="H24" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -3510,10 +3531,10 @@
         <v>99</v>
       </c>
       <c r="G25" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="H25" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -3536,10 +3557,10 @@
         <v>103</v>
       </c>
       <c r="G26" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="H26" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -3562,10 +3583,10 @@
         <v>107</v>
       </c>
       <c r="G27" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="H27" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -3588,10 +3609,10 @@
         <v>111</v>
       </c>
       <c r="G28" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="H28" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -3614,10 +3635,10 @@
         <v>115</v>
       </c>
       <c r="G29" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="H29" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -3640,10 +3661,10 @@
         <v>119</v>
       </c>
       <c r="G30" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="H30" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -3666,10 +3687,10 @@
         <v>123</v>
       </c>
       <c r="G31" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="H31" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -3692,10 +3713,10 @@
         <v>127</v>
       </c>
       <c r="G32" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H32" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -3718,10 +3739,10 @@
         <v>131</v>
       </c>
       <c r="G33" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="H33" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -3744,10 +3765,10 @@
         <v>134</v>
       </c>
       <c r="G34" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="H34" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -3770,10 +3791,10 @@
         <v>138</v>
       </c>
       <c r="G35" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="H35" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -3796,10 +3817,10 @@
         <v>141</v>
       </c>
       <c r="G36" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="H36" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -3822,10 +3843,10 @@
         <v>145</v>
       </c>
       <c r="G37" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="H37" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -3848,10 +3869,10 @@
         <v>148</v>
       </c>
       <c r="G38" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="H38" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -3874,10 +3895,10 @@
         <v>152</v>
       </c>
       <c r="G39" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="H39" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -3900,10 +3921,10 @@
         <v>156</v>
       </c>
       <c r="G40" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="H40" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -3926,10 +3947,10 @@
         <v>160</v>
       </c>
       <c r="G41" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="H41" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -3952,10 +3973,10 @@
         <v>164</v>
       </c>
       <c r="G42" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="H42" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -3978,10 +3999,10 @@
         <v>168</v>
       </c>
       <c r="G43" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="H43" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -4004,10 +4025,10 @@
         <v>172</v>
       </c>
       <c r="G44" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H44" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -4030,10 +4051,10 @@
         <v>176</v>
       </c>
       <c r="G45" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="H45" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -4056,10 +4077,10 @@
         <v>180</v>
       </c>
       <c r="G46" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="H46" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -4082,10 +4103,10 @@
         <v>184</v>
       </c>
       <c r="G47" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H47" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -4108,10 +4129,10 @@
         <v>188</v>
       </c>
       <c r="G48" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H48" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -4134,10 +4155,10 @@
         <v>191</v>
       </c>
       <c r="G49" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="H49" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -4160,10 +4181,10 @@
         <v>195</v>
       </c>
       <c r="G50" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="H50" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -4186,10 +4207,10 @@
         <v>199</v>
       </c>
       <c r="G51" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="H51" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -4212,10 +4233,10 @@
         <v>203</v>
       </c>
       <c r="G52" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H52" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -4238,10 +4259,10 @@
         <v>207</v>
       </c>
       <c r="G53" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="H53" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -4264,10 +4285,10 @@
         <v>211</v>
       </c>
       <c r="G54" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="H54" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -4290,10 +4311,10 @@
         <v>214</v>
       </c>
       <c r="G55" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H55" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -4316,10 +4337,10 @@
         <v>218</v>
       </c>
       <c r="G56" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H56" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -4342,10 +4363,10 @@
         <v>222</v>
       </c>
       <c r="G57" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H57" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -4368,10 +4389,10 @@
         <v>226</v>
       </c>
       <c r="G58" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="H58" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -4394,10 +4415,10 @@
         <v>230</v>
       </c>
       <c r="G59" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="H59" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -4420,10 +4441,10 @@
         <v>234</v>
       </c>
       <c r="G60" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H60" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -4446,10 +4467,10 @@
         <v>238</v>
       </c>
       <c r="G61" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="H61" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -4472,10 +4493,10 @@
         <v>242</v>
       </c>
       <c r="G62" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="H62" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -4498,10 +4519,10 @@
         <v>246</v>
       </c>
       <c r="G63" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="H63" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -4524,10 +4545,10 @@
         <v>250</v>
       </c>
       <c r="G64" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="H64" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -4550,10 +4571,10 @@
         <v>253</v>
       </c>
       <c r="G65" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H65" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -4576,10 +4597,10 @@
         <v>257</v>
       </c>
       <c r="G66" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="H66" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -4602,10 +4623,10 @@
         <v>260</v>
       </c>
       <c r="G67" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="H67" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -4628,10 +4649,10 @@
         <v>264</v>
       </c>
       <c r="G68" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H68" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -4654,10 +4675,10 @@
         <v>267</v>
       </c>
       <c r="G69" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H69" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -4680,10 +4701,10 @@
         <v>271</v>
       </c>
       <c r="G70" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H70" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -4706,10 +4727,10 @@
         <v>274</v>
       </c>
       <c r="G71" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="H71" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -4732,10 +4753,10 @@
         <v>277</v>
       </c>
       <c r="G72" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="H72" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -4758,10 +4779,10 @@
         <v>280</v>
       </c>
       <c r="G73" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="H73" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -4784,10 +4805,10 @@
         <v>283</v>
       </c>
       <c r="G74" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H74" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -4809,6 +4830,12 @@
       <c r="F75" t="s">
         <v>286</v>
       </c>
+      <c r="G75" t="s">
+        <v>626</v>
+      </c>
+      <c r="H75" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
@@ -4829,6 +4856,12 @@
       <c r="F76" t="s">
         <v>290</v>
       </c>
+      <c r="G76" t="s">
+        <v>644</v>
+      </c>
+      <c r="H76" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
@@ -4849,6 +4882,12 @@
       <c r="F77" t="s">
         <v>293</v>
       </c>
+      <c r="G77" t="s">
+        <v>650</v>
+      </c>
+      <c r="H77" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
@@ -4869,6 +4908,12 @@
       <c r="F78" t="s">
         <v>297</v>
       </c>
+      <c r="G78" t="s">
+        <v>653</v>
+      </c>
+      <c r="H78" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
@@ -4889,6 +4934,12 @@
       <c r="F79" t="s">
         <v>301</v>
       </c>
+      <c r="G79" t="s">
+        <v>644</v>
+      </c>
+      <c r="H79" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
@@ -4909,10 +4960,16 @@
       <c r="F80" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G80" t="s">
+        <v>650</v>
+      </c>
+      <c r="H80" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B81">
         <v>2023</v>
@@ -4929,10 +4986,16 @@
       <c r="F81" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G81" t="s">
+        <v>641</v>
+      </c>
+      <c r="H81" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B82">
         <v>2023</v>
@@ -4949,10 +5012,16 @@
       <c r="F82" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G82" t="s">
+        <v>637</v>
+      </c>
+      <c r="H82" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B83">
         <v>2023</v>
@@ -4964,58 +5033,76 @@
         <v>315</v>
       </c>
       <c r="E83" t="s">
+        <v>210</v>
+      </c>
+      <c r="F83" t="s">
         <v>316</v>
       </c>
-      <c r="F83" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G83" t="s">
+        <v>626</v>
+      </c>
+      <c r="H83" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B84">
         <v>2023</v>
       </c>
       <c r="C84" t="s">
+        <v>317</v>
+      </c>
+      <c r="D84" t="s">
         <v>318</v>
-      </c>
-      <c r="D84" t="s">
-        <v>319</v>
       </c>
       <c r="E84" t="s">
         <v>210</v>
       </c>
       <c r="F84" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+      <c r="G84" t="s">
+        <v>654</v>
+      </c>
+      <c r="H84" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B85">
         <v>2023</v>
       </c>
       <c r="C85" t="s">
+        <v>320</v>
+      </c>
+      <c r="D85" t="s">
         <v>321</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>322</v>
-      </c>
-      <c r="E85" t="s">
-        <v>210</v>
       </c>
       <c r="F85" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G85" t="s">
+        <v>627</v>
+      </c>
+      <c r="H85" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B86">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C86" t="s">
         <v>324</v>
@@ -5029,10 +5116,16 @@
       <c r="F86" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G86" t="s">
+        <v>626</v>
+      </c>
+      <c r="H86" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="B87">
         <v>2024</v>
@@ -5044,35 +5137,47 @@
         <v>329</v>
       </c>
       <c r="E87" t="s">
+        <v>151</v>
+      </c>
+      <c r="F87" t="s">
         <v>330</v>
       </c>
-      <c r="F87" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G87" t="s">
+        <v>655</v>
+      </c>
+      <c r="H87" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B88">
         <v>2024</v>
       </c>
       <c r="C88" t="s">
+        <v>331</v>
+      </c>
+      <c r="D88" t="s">
         <v>332</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>333</v>
-      </c>
-      <c r="E88" t="s">
-        <v>151</v>
       </c>
       <c r="F88" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G88" t="s">
+        <v>642</v>
+      </c>
+      <c r="H88" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B89">
         <v>2024</v>
@@ -5089,10 +5194,16 @@
       <c r="F89" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G89" t="s">
+        <v>636</v>
+      </c>
+      <c r="H89" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="B90">
         <v>2024</v>
@@ -5109,10 +5220,16 @@
       <c r="F90" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G90" t="s">
+        <v>650</v>
+      </c>
+      <c r="H90" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B91">
         <v>2024</v>
@@ -5129,10 +5246,16 @@
       <c r="F91" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G91" t="s">
+        <v>627</v>
+      </c>
+      <c r="H91" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B92">
         <v>2024</v>
@@ -5147,52 +5270,73 @@
         <v>349</v>
       </c>
       <c r="F92" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+        <v>657</v>
+      </c>
+      <c r="G92" t="s">
+        <v>656</v>
+      </c>
+      <c r="H92" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B93">
         <v>2024</v>
       </c>
       <c r="C93" t="s">
+        <v>350</v>
+      </c>
+      <c r="D93" t="s">
         <v>351</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
+        <v>210</v>
+      </c>
+      <c r="F93" t="s">
         <v>352</v>
       </c>
-      <c r="E93" t="s">
+      <c r="G93" t="s">
+        <v>626</v>
+      </c>
+      <c r="H93" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>495</v>
+      </c>
+      <c r="B94">
+        <v>1969</v>
+      </c>
+      <c r="C94" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>485</v>
-      </c>
-      <c r="B94">
-        <v>2024</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>354</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>355</v>
-      </c>
-      <c r="E94" t="s">
-        <v>210</v>
       </c>
       <c r="F94" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G94" t="s">
+        <v>626</v>
+      </c>
+      <c r="H94" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B95">
-        <v>1969</v>
+        <v>1974</v>
       </c>
       <c r="C95" t="s">
         <v>357</v>
@@ -5206,13 +5350,19 @@
       <c r="F95" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G95" t="s">
+        <v>658</v>
+      </c>
+      <c r="H95" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B96">
-        <v>1974</v>
+        <v>1977</v>
       </c>
       <c r="C96" t="s">
         <v>361</v>
@@ -5226,13 +5376,19 @@
       <c r="F96" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G96" t="s">
+        <v>626</v>
+      </c>
+      <c r="H96" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B97">
-        <v>1977</v>
+        <v>1982</v>
       </c>
       <c r="C97" t="s">
         <v>365</v>
@@ -5246,13 +5402,19 @@
       <c r="F97" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G97" t="s">
+        <v>627</v>
+      </c>
+      <c r="H97" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B98">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="C98" t="s">
         <v>369</v>
@@ -5266,13 +5428,19 @@
       <c r="F98" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G98" t="s">
+        <v>626</v>
+      </c>
+      <c r="H98" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B99">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="C99" t="s">
         <v>373</v>
@@ -5286,13 +5454,19 @@
       <c r="F99" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G99" t="s">
+        <v>626</v>
+      </c>
+      <c r="H99" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="B100">
-        <v>1984</v>
+        <v>1991</v>
       </c>
       <c r="C100" t="s">
         <v>377</v>
@@ -5306,10 +5480,16 @@
       <c r="F100" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G100" t="s">
+        <v>656</v>
+      </c>
+      <c r="H100" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B101">
         <v>1991</v>
@@ -5326,13 +5506,19 @@
       <c r="F101" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G101" t="s">
+        <v>626</v>
+      </c>
+      <c r="H101" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="B102">
-        <v>1991</v>
+        <v>1997</v>
       </c>
       <c r="C102" t="s">
         <v>385</v>
@@ -5346,13 +5532,19 @@
       <c r="F102" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G102" t="s">
+        <v>659</v>
+      </c>
+      <c r="H102" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="B103">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="C103" t="s">
         <v>389</v>
@@ -5366,10 +5558,16 @@
       <c r="F103" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G103" t="s">
+        <v>627</v>
+      </c>
+      <c r="H103" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B104">
         <v>1998</v>
@@ -5378,1234 +5576,1352 @@
         <v>393</v>
       </c>
       <c r="D104" t="s">
+        <v>660</v>
+      </c>
+      <c r="E104" t="s">
         <v>394</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
+        <v>661</v>
+      </c>
+      <c r="G104" t="s">
+        <v>626</v>
+      </c>
+      <c r="H104" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>539</v>
+      </c>
+      <c r="B105">
+        <v>1999</v>
+      </c>
+      <c r="C105" t="s">
         <v>395</v>
       </c>
-      <c r="F104" t="s">
+      <c r="D105" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>536</v>
-      </c>
-      <c r="B105">
-        <v>1998</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="E105" t="s">
         <v>397</v>
       </c>
-      <c r="D105" t="s">
+      <c r="F105" t="s">
         <v>398</v>
       </c>
-      <c r="E105" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G105" t="s">
+        <v>627</v>
+      </c>
+      <c r="H105" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B106">
         <v>1999</v>
       </c>
       <c r="C106" t="s">
+        <v>399</v>
+      </c>
+      <c r="D106" t="s">
         <v>400</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>401</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
+        <v>662</v>
+      </c>
+      <c r="G106" t="s">
+        <v>659</v>
+      </c>
+      <c r="H106" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>543</v>
+      </c>
+      <c r="B107">
+        <v>2001</v>
+      </c>
+      <c r="C107" t="s">
         <v>402</v>
       </c>
-      <c r="F106" t="s">
+      <c r="D107" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>540</v>
-      </c>
-      <c r="B107">
-        <v>1999</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="E107" t="s">
         <v>404</v>
       </c>
-      <c r="D107" t="s">
+      <c r="F107" t="s">
         <v>405</v>
       </c>
-      <c r="E107" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G107" t="s">
+        <v>626</v>
+      </c>
+      <c r="H107" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B108">
         <v>2001</v>
       </c>
       <c r="C108" t="s">
+        <v>406</v>
+      </c>
+      <c r="D108" t="s">
         <v>407</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
+        <v>106</v>
+      </c>
+      <c r="F108" t="s">
         <v>408</v>
       </c>
-      <c r="E108" t="s">
+      <c r="G108" t="s">
+        <v>641</v>
+      </c>
+      <c r="H108" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>548</v>
+      </c>
+      <c r="B109">
+        <v>2002</v>
+      </c>
+      <c r="C109" t="s">
         <v>409</v>
       </c>
-      <c r="F108" t="s">
+      <c r="D109" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>546</v>
-      </c>
-      <c r="B109">
-        <v>2001</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="E109" t="s">
         <v>411</v>
       </c>
-      <c r="D109" t="s">
+      <c r="F109" t="s">
         <v>412</v>
       </c>
-      <c r="E109" t="s">
-        <v>106</v>
-      </c>
-      <c r="F109" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G109" t="s">
+        <v>627</v>
+      </c>
+      <c r="H109" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="B110">
         <v>2002</v>
       </c>
       <c r="C110" t="s">
+        <v>413</v>
+      </c>
+      <c r="D110" t="s">
         <v>414</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>415</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>416</v>
       </c>
-      <c r="F110" t="s">
+      <c r="G110" t="s">
+        <v>626</v>
+      </c>
+      <c r="H110" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>554</v>
+      </c>
+      <c r="B111">
+        <v>2003</v>
+      </c>
+      <c r="C111" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>553</v>
-      </c>
-      <c r="B111">
-        <v>2002</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>418</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>419</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>420</v>
       </c>
-      <c r="F111" t="s">
+      <c r="G111" t="s">
+        <v>626</v>
+      </c>
+      <c r="H111" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>556</v>
+      </c>
+      <c r="B112">
+        <v>2004</v>
+      </c>
+      <c r="C112" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>554</v>
-      </c>
-      <c r="B112">
-        <v>2003</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>422</v>
       </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
         <v>423</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>424</v>
       </c>
-      <c r="F112" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G112" t="s">
+        <v>626</v>
+      </c>
+      <c r="H112" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B113">
         <v>2004</v>
       </c>
       <c r="C113" t="s">
+        <v>425</v>
+      </c>
+      <c r="D113" t="s">
         <v>426</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>427</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>428</v>
       </c>
-      <c r="F113" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G113" t="s">
+        <v>626</v>
+      </c>
+      <c r="H113" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B114">
         <v>2004</v>
       </c>
       <c r="C114" t="s">
+        <v>429</v>
+      </c>
+      <c r="D114" t="s">
         <v>430</v>
       </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
         <v>431</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>432</v>
       </c>
-      <c r="F114" t="s">
+      <c r="G114" t="s">
+        <v>663</v>
+      </c>
+      <c r="H114" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>565</v>
+      </c>
+      <c r="B115">
+        <v>2005</v>
+      </c>
+      <c r="C115" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>559</v>
-      </c>
-      <c r="B115">
-        <v>2004</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>434</v>
       </c>
-      <c r="D115" t="s">
+      <c r="E115" t="s">
         <v>435</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
         <v>436</v>
       </c>
-      <c r="F115" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G115" t="s">
+        <v>626</v>
+      </c>
+      <c r="H115" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B116">
         <v>2005</v>
       </c>
       <c r="C116" t="s">
+        <v>437</v>
+      </c>
+      <c r="D116" t="s">
         <v>438</v>
       </c>
-      <c r="D116" t="s">
+      <c r="E116" t="s">
+        <v>24</v>
+      </c>
+      <c r="F116" t="s">
         <v>439</v>
       </c>
-      <c r="E116" t="s">
-        <v>440</v>
-      </c>
-      <c r="F116" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G116" t="s">
+        <v>626</v>
+      </c>
+      <c r="H116" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B117">
         <v>2005</v>
       </c>
       <c r="C117" t="s">
+        <v>440</v>
+      </c>
+      <c r="D117" t="s">
+        <v>441</v>
+      </c>
+      <c r="E117" t="s">
+        <v>52</v>
+      </c>
+      <c r="F117" t="s">
         <v>442</v>
       </c>
-      <c r="D117" t="s">
-        <v>443</v>
-      </c>
-      <c r="E117" t="s">
-        <v>24</v>
-      </c>
-      <c r="F117" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G117" t="s">
+        <v>621</v>
+      </c>
+      <c r="H117" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B118">
         <v>2005</v>
       </c>
       <c r="C118" t="s">
+        <v>443</v>
+      </c>
+      <c r="D118" t="s">
+        <v>444</v>
+      </c>
+      <c r="E118" t="s">
         <v>445</v>
       </c>
-      <c r="D118" t="s">
+      <c r="F118" t="s">
         <v>446</v>
       </c>
-      <c r="E118" t="s">
-        <v>52</v>
-      </c>
-      <c r="F118" t="s">
+      <c r="G118" t="s">
+        <v>658</v>
+      </c>
+      <c r="H118" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>570</v>
+      </c>
+      <c r="B119">
+        <v>2006</v>
+      </c>
+      <c r="C119" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>568</v>
-      </c>
-      <c r="B119">
-        <v>2005</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>448</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
+        <v>379</v>
+      </c>
+      <c r="F119" t="s">
         <v>449</v>
       </c>
-      <c r="E119" t="s">
-        <v>450</v>
-      </c>
-      <c r="F119" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G119" t="s">
+        <v>664</v>
+      </c>
+      <c r="H119" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B120">
         <v>2006</v>
       </c>
       <c r="C120" t="s">
+        <v>450</v>
+      </c>
+      <c r="D120" t="s">
+        <v>451</v>
+      </c>
+      <c r="E120" t="s">
         <v>452</v>
       </c>
-      <c r="D120" t="s">
+      <c r="F120" t="s">
         <v>453</v>
       </c>
-      <c r="E120" t="s">
-        <v>383</v>
-      </c>
-      <c r="F120" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G120" t="s">
+        <v>634</v>
+      </c>
+      <c r="H120" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B121">
         <v>2006</v>
       </c>
       <c r="C121" t="s">
+        <v>454</v>
+      </c>
+      <c r="D121" t="s">
         <v>455</v>
       </c>
-      <c r="D121" t="s">
+      <c r="E121" t="s">
         <v>456</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
         <v>457</v>
       </c>
-      <c r="F121" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G121" t="s">
+        <v>643</v>
+      </c>
+      <c r="H121" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B122">
         <v>2006</v>
       </c>
       <c r="C122" t="s">
+        <v>458</v>
+      </c>
+      <c r="D122" t="s">
         <v>459</v>
       </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
         <v>460</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>461</v>
       </c>
-      <c r="F122" t="s">
+      <c r="G122" t="s">
+        <v>626</v>
+      </c>
+      <c r="H122" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>578</v>
+      </c>
+      <c r="B123">
+        <v>2007</v>
+      </c>
+      <c r="C123" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>576</v>
-      </c>
-      <c r="B123">
-        <v>2006</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>463</v>
       </c>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
         <v>464</v>
       </c>
-      <c r="E123" t="s">
+      <c r="F123" t="s">
         <v>465</v>
       </c>
-      <c r="F123" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G123" t="s">
+        <v>627</v>
+      </c>
+      <c r="H123" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B124">
         <v>2007</v>
       </c>
       <c r="C124" t="s">
+        <v>466</v>
+      </c>
+      <c r="D124" t="s">
         <v>467</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
+        <v>24</v>
+      </c>
+      <c r="F124" t="s">
         <v>468</v>
       </c>
-      <c r="E124" t="s">
-        <v>469</v>
-      </c>
-      <c r="F124" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G124" t="s">
+        <v>626</v>
+      </c>
+      <c r="H124" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B125">
         <v>2007</v>
       </c>
       <c r="C125" t="s">
+        <v>469</v>
+      </c>
+      <c r="D125" t="s">
+        <v>470</v>
+      </c>
+      <c r="E125" t="s">
         <v>471</v>
       </c>
-      <c r="D125" t="s">
+      <c r="F125" t="s">
         <v>472</v>
       </c>
-      <c r="E125" t="s">
-        <v>24</v>
-      </c>
-      <c r="F125" t="s">
+      <c r="G125" t="s">
+        <v>634</v>
+      </c>
+      <c r="H125" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>582</v>
+      </c>
+      <c r="B126">
+        <v>2008</v>
+      </c>
+      <c r="C126" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>581</v>
-      </c>
-      <c r="B126">
-        <v>2007</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>474</v>
       </c>
-      <c r="D126" t="s">
+      <c r="E126" t="s">
         <v>475</v>
       </c>
-      <c r="E126" t="s">
-        <v>476</v>
-      </c>
-      <c r="F126" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B127">
         <v>2008</v>
       </c>
       <c r="C127" t="s">
+        <v>476</v>
+      </c>
+      <c r="D127" t="s">
+        <v>477</v>
+      </c>
+      <c r="E127" t="s">
         <v>478</v>
       </c>
-      <c r="D127" t="s">
-        <v>479</v>
-      </c>
-      <c r="E127" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B128">
         <v>2008</v>
       </c>
       <c r="C128" t="s">
+        <v>479</v>
+      </c>
+      <c r="D128" t="s">
+        <v>480</v>
+      </c>
+      <c r="E128" t="s">
         <v>481</v>
       </c>
-      <c r="D128" t="s">
+      <c r="F128" t="s">
         <v>482</v>
-      </c>
-      <c r="E128" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B129">
         <v>2008</v>
       </c>
       <c r="C129" t="s">
+        <v>483</v>
+      </c>
+      <c r="D129" t="s">
         <v>484</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
         <v>485</v>
       </c>
-      <c r="E129" t="s">
+      <c r="F129" t="s">
         <v>486</v>
-      </c>
-      <c r="F129" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B130">
         <v>2008</v>
       </c>
       <c r="C130" t="s">
+        <v>487</v>
+      </c>
+      <c r="D130" t="s">
         <v>488</v>
       </c>
-      <c r="D130" t="s">
+      <c r="E130" t="s">
         <v>489</v>
       </c>
-      <c r="E130" t="s">
+      <c r="F130" t="s">
         <v>490</v>
-      </c>
-      <c r="F130" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B131">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C131" t="s">
+        <v>491</v>
+      </c>
+      <c r="D131" t="s">
         <v>492</v>
       </c>
-      <c r="D131" t="s">
+      <c r="E131" t="s">
         <v>493</v>
       </c>
-      <c r="E131" t="s">
+      <c r="F131" t="s">
         <v>494</v>
-      </c>
-      <c r="F131" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B132">
         <v>2009</v>
       </c>
       <c r="C132" t="s">
+        <v>495</v>
+      </c>
+      <c r="D132" t="s">
         <v>496</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E132" t="s">
         <v>497</v>
       </c>
-      <c r="E132" t="s">
+      <c r="F132" t="s">
         <v>498</v>
-      </c>
-      <c r="F132" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B133">
         <v>2009</v>
       </c>
       <c r="C133" t="s">
+        <v>499</v>
+      </c>
+      <c r="D133" t="s">
         <v>500</v>
       </c>
-      <c r="D133" t="s">
+      <c r="E133" t="s">
         <v>501</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
         <v>502</v>
-      </c>
-      <c r="F133" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B134">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C134" t="s">
+        <v>503</v>
+      </c>
+      <c r="D134" t="s">
         <v>504</v>
       </c>
-      <c r="D134" t="s">
+      <c r="E134" t="s">
         <v>505</v>
       </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
         <v>506</v>
-      </c>
-      <c r="F134" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B135">
         <v>2010</v>
       </c>
       <c r="C135" t="s">
+        <v>507</v>
+      </c>
+      <c r="D135" t="s">
         <v>508</v>
       </c>
-      <c r="D135" t="s">
+      <c r="E135" t="s">
+        <v>505</v>
+      </c>
+      <c r="F135" t="s">
         <v>509</v>
-      </c>
-      <c r="E135" t="s">
-        <v>510</v>
-      </c>
-      <c r="F135" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="B136">
         <v>2010</v>
       </c>
       <c r="C136" t="s">
+        <v>510</v>
+      </c>
+      <c r="D136" t="s">
+        <v>511</v>
+      </c>
+      <c r="E136" t="s">
         <v>512</v>
-      </c>
-      <c r="D136" t="s">
-        <v>513</v>
-      </c>
-      <c r="E136" t="s">
-        <v>510</v>
-      </c>
-      <c r="F136" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B137">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C137" t="s">
+        <v>513</v>
+      </c>
+      <c r="D137" t="s">
+        <v>514</v>
+      </c>
+      <c r="E137" t="s">
         <v>515</v>
-      </c>
-      <c r="D137" t="s">
-        <v>516</v>
-      </c>
-      <c r="E137" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="B138">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C138" t="s">
+        <v>516</v>
+      </c>
+      <c r="D138" t="s">
+        <v>517</v>
+      </c>
+      <c r="E138" t="s">
         <v>518</v>
-      </c>
-      <c r="D138" t="s">
-        <v>519</v>
-      </c>
-      <c r="E138" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="B139">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C139" t="s">
+        <v>519</v>
+      </c>
+      <c r="D139" t="s">
+        <v>520</v>
+      </c>
+      <c r="E139" t="s">
         <v>521</v>
       </c>
-      <c r="D139" t="s">
+      <c r="F139" t="s">
         <v>522</v>
-      </c>
-      <c r="E139" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B140">
         <v>2013</v>
       </c>
       <c r="C140" t="s">
+        <v>523</v>
+      </c>
+      <c r="D140" t="s">
         <v>524</v>
       </c>
-      <c r="D140" t="s">
+      <c r="E140" t="s">
         <v>525</v>
-      </c>
-      <c r="E140" t="s">
-        <v>526</v>
-      </c>
-      <c r="F140" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B141">
         <v>2013</v>
       </c>
       <c r="C141" t="s">
+        <v>526</v>
+      </c>
+      <c r="D141" t="s">
+        <v>527</v>
+      </c>
+      <c r="E141" t="s">
         <v>528</v>
       </c>
-      <c r="D141" t="s">
+      <c r="F141" t="s">
         <v>529</v>
-      </c>
-      <c r="E141" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B142">
         <v>2013</v>
       </c>
       <c r="C142" t="s">
+        <v>530</v>
+      </c>
+      <c r="D142" t="s">
         <v>531</v>
       </c>
-      <c r="D142" t="s">
+      <c r="E142" t="s">
+        <v>452</v>
+      </c>
+      <c r="F142" t="s">
         <v>532</v>
-      </c>
-      <c r="E142" t="s">
-        <v>533</v>
-      </c>
-      <c r="F142" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B143">
         <v>2013</v>
       </c>
       <c r="C143" t="s">
+        <v>533</v>
+      </c>
+      <c r="D143" t="s">
+        <v>534</v>
+      </c>
+      <c r="E143" t="s">
         <v>535</v>
       </c>
-      <c r="D143" t="s">
+      <c r="F143" t="s">
         <v>536</v>
-      </c>
-      <c r="E143" t="s">
-        <v>457</v>
-      </c>
-      <c r="F143" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B144">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C144" t="s">
+        <v>537</v>
+      </c>
+      <c r="D144" t="s">
         <v>538</v>
       </c>
-      <c r="D144" t="s">
+      <c r="E144" t="s">
         <v>539</v>
       </c>
-      <c r="E144" t="s">
+      <c r="F144" t="s">
         <v>540</v>
-      </c>
-      <c r="F144" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B145">
         <v>2014</v>
       </c>
       <c r="C145" t="s">
+        <v>541</v>
+      </c>
+      <c r="D145" t="s">
         <v>542</v>
       </c>
-      <c r="D145" t="s">
+      <c r="E145" t="s">
         <v>543</v>
-      </c>
-      <c r="E145" t="s">
-        <v>544</v>
-      </c>
-      <c r="F145" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="B146">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C146" t="s">
+        <v>544</v>
+      </c>
+      <c r="D146" t="s">
+        <v>545</v>
+      </c>
+      <c r="E146" t="s">
         <v>546</v>
       </c>
-      <c r="D146" t="s">
+      <c r="F146" t="s">
         <v>547</v>
-      </c>
-      <c r="E146" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="B147">
         <v>2015</v>
       </c>
       <c r="C147" t="s">
+        <v>548</v>
+      </c>
+      <c r="D147" t="s">
         <v>549</v>
       </c>
-      <c r="D147" t="s">
+      <c r="E147" t="s">
+        <v>106</v>
+      </c>
+      <c r="F147" t="s">
         <v>550</v>
-      </c>
-      <c r="E147" t="s">
-        <v>551</v>
-      </c>
-      <c r="F147" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B148">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C148" t="s">
+        <v>551</v>
+      </c>
+      <c r="D148" t="s">
+        <v>552</v>
+      </c>
+      <c r="E148" t="s">
         <v>553</v>
       </c>
-      <c r="D148" t="s">
+      <c r="F148" t="s">
         <v>554</v>
-      </c>
-      <c r="E148" t="s">
-        <v>106</v>
-      </c>
-      <c r="F148" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B149">
         <v>2016</v>
       </c>
       <c r="C149" t="s">
+        <v>555</v>
+      </c>
+      <c r="D149" t="s">
         <v>556</v>
       </c>
-      <c r="D149" t="s">
+      <c r="E149" t="s">
         <v>557</v>
       </c>
-      <c r="E149" t="s">
+      <c r="F149" t="s">
         <v>558</v>
-      </c>
-      <c r="F149" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B150">
         <v>2016</v>
       </c>
       <c r="C150" t="s">
+        <v>559</v>
+      </c>
+      <c r="D150" t="s">
         <v>560</v>
       </c>
-      <c r="D150" t="s">
+      <c r="E150" t="s">
+        <v>241</v>
+      </c>
+      <c r="F150" t="s">
         <v>561</v>
-      </c>
-      <c r="E150" t="s">
-        <v>562</v>
-      </c>
-      <c r="F150" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B151">
         <v>2016</v>
       </c>
       <c r="C151" t="s">
+        <v>562</v>
+      </c>
+      <c r="D151" t="s">
+        <v>563</v>
+      </c>
+      <c r="E151" t="s">
         <v>564</v>
       </c>
-      <c r="D151" t="s">
+      <c r="F151" t="s">
         <v>565</v>
-      </c>
-      <c r="E151" t="s">
-        <v>241</v>
-      </c>
-      <c r="F151" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="B152">
         <v>2016</v>
       </c>
       <c r="C152" t="s">
+        <v>566</v>
+      </c>
+      <c r="D152" t="s">
         <v>567</v>
       </c>
-      <c r="D152" t="s">
+      <c r="E152" t="s">
         <v>568</v>
       </c>
-      <c r="E152" t="s">
+      <c r="F152" t="s">
         <v>569</v>
-      </c>
-      <c r="F152" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B153">
         <v>2016</v>
       </c>
       <c r="C153" t="s">
+        <v>570</v>
+      </c>
+      <c r="D153" t="s">
         <v>571</v>
       </c>
-      <c r="D153" t="s">
+      <c r="E153" t="s">
         <v>572</v>
       </c>
-      <c r="E153" t="s">
+      <c r="F153" t="s">
         <v>573</v>
-      </c>
-      <c r="F153" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B154">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C154" t="s">
+        <v>574</v>
+      </c>
+      <c r="D154" t="s">
         <v>575</v>
       </c>
-      <c r="D154" t="s">
+      <c r="E154" t="s">
         <v>576</v>
       </c>
-      <c r="E154" t="s">
+      <c r="F154" t="s">
         <v>577</v>
-      </c>
-      <c r="F154" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="B155">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C155" t="s">
+        <v>578</v>
+      </c>
+      <c r="D155" t="s">
         <v>579</v>
       </c>
-      <c r="D155" t="s">
+      <c r="E155" t="s">
         <v>580</v>
       </c>
-      <c r="E155" t="s">
+      <c r="F155" t="s">
         <v>581</v>
-      </c>
-      <c r="F155" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B156">
         <v>2018</v>
       </c>
       <c r="C156" t="s">
+        <v>582</v>
+      </c>
+      <c r="D156" t="s">
         <v>583</v>
       </c>
-      <c r="D156" t="s">
+      <c r="E156" t="s">
         <v>584</v>
-      </c>
-      <c r="E156" t="s">
-        <v>585</v>
-      </c>
-      <c r="F156" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="B157">
-        <v>2018</v>
-      </c>
-      <c r="C157" t="s">
+        <v>2019</v>
+      </c>
+      <c r="D157" t="s">
+        <v>585</v>
+      </c>
+      <c r="E157" t="s">
+        <v>586</v>
+      </c>
+      <c r="F157" t="s">
         <v>587</v>
-      </c>
-      <c r="D157" t="s">
-        <v>588</v>
-      </c>
-      <c r="E157" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="B158">
-        <v>2019</v>
+        <v>2021</v>
+      </c>
+      <c r="C158" t="s">
+        <v>588</v>
       </c>
       <c r="D158" t="s">
+        <v>589</v>
+      </c>
+      <c r="E158" t="s">
+        <v>210</v>
+      </c>
+      <c r="F158" t="s">
         <v>590</v>
-      </c>
-      <c r="E158" t="s">
-        <v>591</v>
-      </c>
-      <c r="F158" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="B159">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C159" t="s">
+        <v>591</v>
+      </c>
+      <c r="D159" t="s">
+        <v>592</v>
+      </c>
+      <c r="E159" t="s">
         <v>593</v>
       </c>
-      <c r="D159" t="s">
+      <c r="F159" t="s">
         <v>594</v>
-      </c>
-      <c r="E159" t="s">
-        <v>210</v>
-      </c>
-      <c r="F159" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B160">
         <v>2022</v>
       </c>
       <c r="C160" t="s">
+        <v>595</v>
+      </c>
+      <c r="D160" t="s">
         <v>596</v>
       </c>
-      <c r="D160" t="s">
+      <c r="E160" t="s">
         <v>597</v>
       </c>
-      <c r="E160" t="s">
+      <c r="F160" t="s">
         <v>598</v>
-      </c>
-      <c r="F160" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B161">
         <v>2022</v>
       </c>
       <c r="C161" t="s">
+        <v>599</v>
+      </c>
+      <c r="D161" t="s">
         <v>600</v>
       </c>
-      <c r="D161" t="s">
+      <c r="E161" t="s">
+        <v>210</v>
+      </c>
+      <c r="F161" t="s">
         <v>601</v>
-      </c>
-      <c r="E161" t="s">
-        <v>602</v>
-      </c>
-      <c r="F161" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B162">
         <v>2022</v>
       </c>
       <c r="C162" t="s">
+        <v>602</v>
+      </c>
+      <c r="D162" t="s">
+        <v>603</v>
+      </c>
+      <c r="E162" t="s">
+        <v>572</v>
+      </c>
+      <c r="F162" t="s">
         <v>604</v>
-      </c>
-      <c r="D162" t="s">
-        <v>605</v>
-      </c>
-      <c r="E162" t="s">
-        <v>210</v>
-      </c>
-      <c r="F162" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B163">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C163" t="s">
+        <v>605</v>
+      </c>
+      <c r="D163" t="s">
+        <v>606</v>
+      </c>
+      <c r="E163" t="s">
+        <v>543</v>
+      </c>
+      <c r="F163" t="s">
         <v>607</v>
-      </c>
-      <c r="D163" t="s">
-        <v>608</v>
-      </c>
-      <c r="E163" t="s">
-        <v>577</v>
-      </c>
-      <c r="F163" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B164">
         <v>2023</v>
       </c>
       <c r="C164" t="s">
+        <v>608</v>
+      </c>
+      <c r="D164" t="s">
+        <v>609</v>
+      </c>
+      <c r="E164" t="s">
         <v>610</v>
       </c>
-      <c r="D164" t="s">
+      <c r="F164" t="s">
         <v>611</v>
-      </c>
-      <c r="E164" t="s">
-        <v>548</v>
-      </c>
-      <c r="F164" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B165">
         <v>2023</v>
       </c>
       <c r="C165" t="s">
+        <v>612</v>
+      </c>
+      <c r="D165" t="s">
         <v>613</v>
       </c>
-      <c r="D165" t="s">
+      <c r="E165" t="s">
         <v>614</v>
       </c>
-      <c r="E165" t="s">
+      <c r="F165" t="s">
         <v>615</v>
-      </c>
-      <c r="F165" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="B166">
-        <v>2023</v>
+        <v>2016</v>
       </c>
       <c r="C166" t="s">
+        <v>616</v>
+      </c>
+      <c r="D166" t="s">
         <v>617</v>
-      </c>
-      <c r="D166" t="s">
-        <v>618</v>
-      </c>
-      <c r="E166" t="s">
-        <v>619</v>
-      </c>
-      <c r="F166" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167">
-        <v>692</v>
-      </c>
-      <c r="B167">
-        <v>2016</v>
-      </c>
-      <c r="C167" t="s">
-        <v>621</v>
-      </c>
-      <c r="D167" t="s">
-        <v>622</v>
       </c>
     </row>
   </sheetData>

--- a/input/raw_data/final_inclusion/included_paper_data.xlsx
+++ b/input/raw_data/final_inclusion/included_paper_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/final_inclusion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0ACD8F3E-7A97-7440-A6E2-88E540B6663F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AC799E6F-C383-FE45-BF25-3A931EC5901F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20560" yWindow="13100" windowWidth="20580" windowHeight="12240" xr2:uid="{9048CFBC-1539-6C42-8D80-67261DE2789D}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="673">
   <si>
     <t>Study_ID</t>
   </si>
@@ -1648,9 +1648,6 @@
     <t>Bhasin, Sanjay K.; Kachroo, S. L.; Kumar, Vijay; Kumar, Raj; Chandail, Viajaynt Singh</t>
   </si>
   <si>
-    <t>7‚Äö√Ñ√π long knife for 7 years in the duodenum: a rare case report and review of literature</t>
-  </si>
-  <si>
     <t>International Surgery Journal</t>
   </si>
   <si>
@@ -2015,6 +2012,33 @@
   </si>
   <si>
     <t>Singapore</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>10.1053/j.gastro.2013.01.059</t>
+  </si>
+  <si>
+    <t>7" long knife for 7 years in the duodenum: a rare case report and review of literature</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Kerestes, T.; Smith, J.</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
   </si>
 </sst>
 </file>
@@ -2877,8 +2901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D9C861-6E8A-1F44-8AE5-524FEEA61607}">
   <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="D126" sqref="D126"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="H167" sqref="H167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2907,10 +2931,10 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>617</v>
+      </c>
+      <c r="H1" t="s">
         <v>618</v>
-      </c>
-      <c r="H1" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2933,10 +2957,10 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2959,10 +2983,10 @@
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2985,10 +3009,10 @@
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -3011,10 +3035,10 @@
         <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -3037,10 +3061,10 @@
         <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3063,10 +3087,10 @@
         <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H7" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -3089,10 +3113,10 @@
         <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H8" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3115,10 +3139,10 @@
         <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3141,10 +3165,10 @@
         <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H10" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3167,10 +3191,10 @@
         <v>45</v>
       </c>
       <c r="G11" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H11" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -3193,10 +3217,10 @@
         <v>49</v>
       </c>
       <c r="G12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -3219,10 +3243,10 @@
         <v>53</v>
       </c>
       <c r="G13" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H13" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -3245,10 +3269,10 @@
         <v>57</v>
       </c>
       <c r="G14" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -3271,10 +3295,10 @@
         <v>61</v>
       </c>
       <c r="G15" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H15" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -3297,10 +3321,10 @@
         <v>65</v>
       </c>
       <c r="G16" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H16" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -3323,10 +3347,10 @@
         <v>69</v>
       </c>
       <c r="G17" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H17" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -3349,10 +3373,10 @@
         <v>72</v>
       </c>
       <c r="G18" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H18" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -3375,10 +3399,10 @@
         <v>75</v>
       </c>
       <c r="G19" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H19" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -3401,10 +3425,10 @@
         <v>79</v>
       </c>
       <c r="G20" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H20" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -3427,10 +3451,10 @@
         <v>83</v>
       </c>
       <c r="G21" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H21" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -3453,10 +3477,10 @@
         <v>87</v>
       </c>
       <c r="G22" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H22" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -3479,10 +3503,10 @@
         <v>91</v>
       </c>
       <c r="G23" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H23" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -3505,10 +3529,10 @@
         <v>95</v>
       </c>
       <c r="G24" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H24" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -3531,10 +3555,10 @@
         <v>99</v>
       </c>
       <c r="G25" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H25" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -3557,10 +3581,10 @@
         <v>103</v>
       </c>
       <c r="G26" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H26" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -3583,10 +3607,10 @@
         <v>107</v>
       </c>
       <c r="G27" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H27" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -3609,10 +3633,10 @@
         <v>111</v>
       </c>
       <c r="G28" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H28" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -3635,10 +3659,10 @@
         <v>115</v>
       </c>
       <c r="G29" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H29" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -3661,10 +3685,10 @@
         <v>119</v>
       </c>
       <c r="G30" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H30" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -3687,10 +3711,10 @@
         <v>123</v>
       </c>
       <c r="G31" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H31" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -3713,10 +3737,10 @@
         <v>127</v>
       </c>
       <c r="G32" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H32" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -3739,10 +3763,10 @@
         <v>131</v>
       </c>
       <c r="G33" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H33" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -3765,10 +3789,10 @@
         <v>134</v>
       </c>
       <c r="G34" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H34" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -3791,10 +3815,10 @@
         <v>138</v>
       </c>
       <c r="G35" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H35" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -3817,10 +3841,10 @@
         <v>141</v>
       </c>
       <c r="G36" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H36" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -3843,10 +3867,10 @@
         <v>145</v>
       </c>
       <c r="G37" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H37" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -3869,10 +3893,10 @@
         <v>148</v>
       </c>
       <c r="G38" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H38" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -3895,10 +3919,10 @@
         <v>152</v>
       </c>
       <c r="G39" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H39" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -3921,10 +3945,10 @@
         <v>156</v>
       </c>
       <c r="G40" t="s">
+        <v>626</v>
+      </c>
+      <c r="H40" t="s">
         <v>627</v>
-      </c>
-      <c r="H40" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -3947,10 +3971,10 @@
         <v>160</v>
       </c>
       <c r="G41" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H41" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -3973,10 +3997,10 @@
         <v>164</v>
       </c>
       <c r="G42" t="s">
+        <v>626</v>
+      </c>
+      <c r="H42" t="s">
         <v>627</v>
-      </c>
-      <c r="H42" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -3999,10 +4023,10 @@
         <v>168</v>
       </c>
       <c r="G43" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H43" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -4025,10 +4049,10 @@
         <v>172</v>
       </c>
       <c r="G44" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H44" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -4051,10 +4075,10 @@
         <v>176</v>
       </c>
       <c r="G45" t="s">
+        <v>626</v>
+      </c>
+      <c r="H45" t="s">
         <v>627</v>
-      </c>
-      <c r="H45" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -4077,10 +4101,10 @@
         <v>180</v>
       </c>
       <c r="G46" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H46" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -4103,10 +4127,10 @@
         <v>184</v>
       </c>
       <c r="G47" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H47" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -4129,10 +4153,10 @@
         <v>188</v>
       </c>
       <c r="G48" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H48" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -4155,10 +4179,10 @@
         <v>191</v>
       </c>
       <c r="G49" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H49" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -4181,10 +4205,10 @@
         <v>195</v>
       </c>
       <c r="G50" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -4207,10 +4231,10 @@
         <v>199</v>
       </c>
       <c r="G51" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H51" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -4233,10 +4257,10 @@
         <v>203</v>
       </c>
       <c r="G52" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H52" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -4259,10 +4283,10 @@
         <v>207</v>
       </c>
       <c r="G53" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H53" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -4285,10 +4309,10 @@
         <v>211</v>
       </c>
       <c r="G54" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H54" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -4311,10 +4335,10 @@
         <v>214</v>
       </c>
       <c r="G55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H55" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -4337,10 +4361,10 @@
         <v>218</v>
       </c>
       <c r="G56" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H56" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -4363,10 +4387,10 @@
         <v>222</v>
       </c>
       <c r="G57" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H57" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -4389,10 +4413,10 @@
         <v>226</v>
       </c>
       <c r="G58" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H58" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -4415,10 +4439,10 @@
         <v>230</v>
       </c>
       <c r="G59" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H59" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -4441,10 +4465,10 @@
         <v>234</v>
       </c>
       <c r="G60" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H60" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -4467,10 +4491,10 @@
         <v>238</v>
       </c>
       <c r="G61" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H61" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -4493,10 +4517,10 @@
         <v>242</v>
       </c>
       <c r="G62" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H62" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -4519,10 +4543,10 @@
         <v>246</v>
       </c>
       <c r="G63" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H63" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -4545,10 +4569,10 @@
         <v>250</v>
       </c>
       <c r="G64" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H64" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -4571,10 +4595,10 @@
         <v>253</v>
       </c>
       <c r="G65" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H65" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -4597,10 +4621,10 @@
         <v>257</v>
       </c>
       <c r="G66" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H66" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -4623,10 +4647,10 @@
         <v>260</v>
       </c>
       <c r="G67" t="s">
+        <v>626</v>
+      </c>
+      <c r="H67" t="s">
         <v>627</v>
-      </c>
-      <c r="H67" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -4649,10 +4673,10 @@
         <v>264</v>
       </c>
       <c r="G68" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H68" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -4675,10 +4699,10 @@
         <v>267</v>
       </c>
       <c r="G69" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H69" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -4701,10 +4725,10 @@
         <v>271</v>
       </c>
       <c r="G70" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H70" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -4727,10 +4751,10 @@
         <v>274</v>
       </c>
       <c r="G71" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H71" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -4753,10 +4777,10 @@
         <v>277</v>
       </c>
       <c r="G72" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H72" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -4779,10 +4803,10 @@
         <v>280</v>
       </c>
       <c r="G73" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H73" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -4805,10 +4829,10 @@
         <v>283</v>
       </c>
       <c r="G74" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H74" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -4831,10 +4855,10 @@
         <v>286</v>
       </c>
       <c r="G75" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H75" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -4857,10 +4881,10 @@
         <v>290</v>
       </c>
       <c r="G76" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H76" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -4883,10 +4907,10 @@
         <v>293</v>
       </c>
       <c r="G77" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H77" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -4909,10 +4933,10 @@
         <v>297</v>
       </c>
       <c r="G78" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H78" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -4935,10 +4959,10 @@
         <v>301</v>
       </c>
       <c r="G79" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H79" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -4961,10 +4985,10 @@
         <v>305</v>
       </c>
       <c r="G80" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H80" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -4987,10 +5011,10 @@
         <v>309</v>
       </c>
       <c r="G81" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H81" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -5013,10 +5037,10 @@
         <v>313</v>
       </c>
       <c r="G82" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H82" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -5039,10 +5063,10 @@
         <v>316</v>
       </c>
       <c r="G83" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H83" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -5065,10 +5089,10 @@
         <v>319</v>
       </c>
       <c r="G84" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H84" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -5091,10 +5115,10 @@
         <v>323</v>
       </c>
       <c r="G85" t="s">
+        <v>626</v>
+      </c>
+      <c r="H85" t="s">
         <v>627</v>
-      </c>
-      <c r="H85" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -5117,10 +5141,10 @@
         <v>327</v>
       </c>
       <c r="G86" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H86" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -5143,10 +5167,10 @@
         <v>330</v>
       </c>
       <c r="G87" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H87" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -5169,10 +5193,10 @@
         <v>334</v>
       </c>
       <c r="G88" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H88" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -5195,10 +5219,10 @@
         <v>338</v>
       </c>
       <c r="G89" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H89" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -5221,10 +5245,10 @@
         <v>342</v>
       </c>
       <c r="G90" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H90" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
@@ -5247,10 +5271,10 @@
         <v>346</v>
       </c>
       <c r="G91" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H91" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -5270,13 +5294,13 @@
         <v>349</v>
       </c>
       <c r="F92" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G92" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H92" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -5299,10 +5323,10 @@
         <v>352</v>
       </c>
       <c r="G93" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H93" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -5325,10 +5349,10 @@
         <v>356</v>
       </c>
       <c r="G94" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H94" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -5351,10 +5375,10 @@
         <v>360</v>
       </c>
       <c r="G95" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H95" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -5377,10 +5401,10 @@
         <v>364</v>
       </c>
       <c r="G96" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H96" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -5403,10 +5427,10 @@
         <v>368</v>
       </c>
       <c r="G97" t="s">
+        <v>626</v>
+      </c>
+      <c r="H97" t="s">
         <v>627</v>
-      </c>
-      <c r="H97" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -5429,10 +5453,10 @@
         <v>372</v>
       </c>
       <c r="G98" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H98" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
@@ -5455,10 +5479,10 @@
         <v>376</v>
       </c>
       <c r="G99" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H99" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
@@ -5481,10 +5505,10 @@
         <v>380</v>
       </c>
       <c r="G100" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H100" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -5507,10 +5531,10 @@
         <v>384</v>
       </c>
       <c r="G101" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H101" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
@@ -5533,10 +5557,10 @@
         <v>388</v>
       </c>
       <c r="G102" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H102" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
@@ -5559,10 +5583,10 @@
         <v>392</v>
       </c>
       <c r="G103" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H103" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -5576,19 +5600,19 @@
         <v>393</v>
       </c>
       <c r="D104" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E104" t="s">
         <v>394</v>
       </c>
       <c r="F104" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G104" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H104" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
@@ -5611,10 +5635,10 @@
         <v>398</v>
       </c>
       <c r="G105" t="s">
+        <v>626</v>
+      </c>
+      <c r="H105" t="s">
         <v>627</v>
-      </c>
-      <c r="H105" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -5634,13 +5658,13 @@
         <v>401</v>
       </c>
       <c r="F106" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G106" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H106" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -5663,10 +5687,10 @@
         <v>405</v>
       </c>
       <c r="G107" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H107" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -5689,10 +5713,10 @@
         <v>408</v>
       </c>
       <c r="G108" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H108" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -5715,10 +5739,10 @@
         <v>412</v>
       </c>
       <c r="G109" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H109" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -5741,10 +5765,10 @@
         <v>416</v>
       </c>
       <c r="G110" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H110" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
@@ -5767,10 +5791,10 @@
         <v>420</v>
       </c>
       <c r="G111" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H111" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -5793,10 +5817,10 @@
         <v>424</v>
       </c>
       <c r="G112" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H112" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
@@ -5819,10 +5843,10 @@
         <v>428</v>
       </c>
       <c r="G113" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H113" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
@@ -5845,10 +5869,10 @@
         <v>432</v>
       </c>
       <c r="G114" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H114" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
@@ -5871,10 +5895,10 @@
         <v>436</v>
       </c>
       <c r="G115" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H115" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
@@ -5897,10 +5921,10 @@
         <v>439</v>
       </c>
       <c r="G116" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H116" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
@@ -5923,10 +5947,10 @@
         <v>442</v>
       </c>
       <c r="G117" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H117" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -5949,10 +5973,10 @@
         <v>446</v>
       </c>
       <c r="G118" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H118" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -5975,10 +5999,10 @@
         <v>449</v>
       </c>
       <c r="G119" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H119" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
@@ -6001,10 +6025,10 @@
         <v>453</v>
       </c>
       <c r="G120" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H120" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
@@ -6027,10 +6051,10 @@
         <v>457</v>
       </c>
       <c r="G121" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H121" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
@@ -6053,10 +6077,10 @@
         <v>461</v>
       </c>
       <c r="G122" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H122" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -6079,10 +6103,10 @@
         <v>465</v>
       </c>
       <c r="G123" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H123" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
@@ -6105,10 +6129,10 @@
         <v>468</v>
       </c>
       <c r="G124" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H124" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
@@ -6131,10 +6155,10 @@
         <v>472</v>
       </c>
       <c r="G125" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H125" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
@@ -6153,6 +6177,15 @@
       <c r="E126" t="s">
         <v>475</v>
       </c>
+      <c r="F126" t="s">
+        <v>661</v>
+      </c>
+      <c r="G126" t="s">
+        <v>636</v>
+      </c>
+      <c r="H126" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127">
@@ -6170,6 +6203,15 @@
       <c r="E127" t="s">
         <v>478</v>
       </c>
+      <c r="F127" t="s">
+        <v>661</v>
+      </c>
+      <c r="G127" t="s">
+        <v>626</v>
+      </c>
+      <c r="H127" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128">
@@ -6190,8 +6232,14 @@
       <c r="F128" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G128" t="s">
+        <v>636</v>
+      </c>
+      <c r="H128" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>588</v>
       </c>
@@ -6210,8 +6258,14 @@
       <c r="F129" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G129" t="s">
+        <v>655</v>
+      </c>
+      <c r="H129" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>589</v>
       </c>
@@ -6230,8 +6284,14 @@
       <c r="F130" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G130" t="s">
+        <v>625</v>
+      </c>
+      <c r="H130" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>592</v>
       </c>
@@ -6250,8 +6310,14 @@
       <c r="F131" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G131" t="s">
+        <v>664</v>
+      </c>
+      <c r="H131" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>593</v>
       </c>
@@ -6270,8 +6336,14 @@
       <c r="F132" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G132" t="s">
+        <v>626</v>
+      </c>
+      <c r="H132" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>594</v>
       </c>
@@ -6290,8 +6362,14 @@
       <c r="F133" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G133" t="s">
+        <v>665</v>
+      </c>
+      <c r="H133" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>597</v>
       </c>
@@ -6310,8 +6388,14 @@
       <c r="F134" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G134" t="s">
+        <v>625</v>
+      </c>
+      <c r="H134" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>598</v>
       </c>
@@ -6330,8 +6414,14 @@
       <c r="F135" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G135" t="s">
+        <v>625</v>
+      </c>
+      <c r="H135" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>602</v>
       </c>
@@ -6347,8 +6437,17 @@
       <c r="E136" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F136" t="s">
+        <v>661</v>
+      </c>
+      <c r="G136" t="s">
+        <v>666</v>
+      </c>
+      <c r="H136" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>604</v>
       </c>
@@ -6364,8 +6463,17 @@
       <c r="E137" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F137" t="s">
+        <v>661</v>
+      </c>
+      <c r="G137" t="s">
+        <v>665</v>
+      </c>
+      <c r="H137" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>610</v>
       </c>
@@ -6381,8 +6489,17 @@
       <c r="E138" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F138" t="s">
+        <v>661</v>
+      </c>
+      <c r="G138" t="s">
+        <v>625</v>
+      </c>
+      <c r="H138" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>617</v>
       </c>
@@ -6401,8 +6518,14 @@
       <c r="F139" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G139" t="s">
+        <v>625</v>
+      </c>
+      <c r="H139" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>620</v>
       </c>
@@ -6418,8 +6541,17 @@
       <c r="E140" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F140" t="s">
+        <v>667</v>
+      </c>
+      <c r="G140" t="s">
+        <v>625</v>
+      </c>
+      <c r="H140" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>621</v>
       </c>
@@ -6438,8 +6570,14 @@
       <c r="F141" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G141" t="s">
+        <v>636</v>
+      </c>
+      <c r="H141" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>622</v>
       </c>
@@ -6458,8 +6596,14 @@
       <c r="F142" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G142" t="s">
+        <v>634</v>
+      </c>
+      <c r="H142" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>623</v>
       </c>
@@ -6478,8 +6622,14 @@
       <c r="F143" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G143" t="s">
+        <v>636</v>
+      </c>
+      <c r="H143" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>625</v>
       </c>
@@ -6498,8 +6648,14 @@
       <c r="F144" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G144" t="s">
+        <v>625</v>
+      </c>
+      <c r="H144" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>626</v>
       </c>
@@ -6510,13 +6666,22 @@
         <v>541</v>
       </c>
       <c r="D145" t="s">
+        <v>668</v>
+      </c>
+      <c r="E145" t="s">
         <v>542</v>
       </c>
-      <c r="E145" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F145" t="s">
+        <v>661</v>
+      </c>
+      <c r="G145" t="s">
+        <v>636</v>
+      </c>
+      <c r="H145" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>637</v>
       </c>
@@ -6524,19 +6689,25 @@
         <v>2015</v>
       </c>
       <c r="C146" t="s">
+        <v>543</v>
+      </c>
+      <c r="D146" t="s">
         <v>544</v>
       </c>
-      <c r="D146" t="s">
+      <c r="E146" t="s">
         <v>545</v>
       </c>
-      <c r="E146" t="s">
+      <c r="F146" t="s">
         <v>546</v>
       </c>
-      <c r="F146" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G146" t="s">
+        <v>636</v>
+      </c>
+      <c r="H146" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>640</v>
       </c>
@@ -6544,19 +6715,25 @@
         <v>2015</v>
       </c>
       <c r="C147" t="s">
+        <v>547</v>
+      </c>
+      <c r="D147" t="s">
         <v>548</v>
-      </c>
-      <c r="D147" t="s">
-        <v>549</v>
       </c>
       <c r="E147" t="s">
         <v>106</v>
       </c>
       <c r="F147" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+        <v>549</v>
+      </c>
+      <c r="G147" t="s">
+        <v>637</v>
+      </c>
+      <c r="H147" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>643</v>
       </c>
@@ -6564,19 +6741,25 @@
         <v>2016</v>
       </c>
       <c r="C148" t="s">
+        <v>550</v>
+      </c>
+      <c r="D148" t="s">
         <v>551</v>
       </c>
-      <c r="D148" t="s">
+      <c r="E148" t="s">
         <v>552</v>
       </c>
-      <c r="E148" t="s">
+      <c r="F148" t="s">
         <v>553</v>
       </c>
-      <c r="F148" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G148" t="s">
+        <v>635</v>
+      </c>
+      <c r="H148" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>644</v>
       </c>
@@ -6584,19 +6767,25 @@
         <v>2016</v>
       </c>
       <c r="C149" t="s">
+        <v>554</v>
+      </c>
+      <c r="D149" t="s">
         <v>555</v>
       </c>
-      <c r="D149" t="s">
+      <c r="E149" t="s">
         <v>556</v>
       </c>
-      <c r="E149" t="s">
+      <c r="F149" t="s">
         <v>557</v>
       </c>
-      <c r="F149" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G149" t="s">
+        <v>625</v>
+      </c>
+      <c r="H149" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>646</v>
       </c>
@@ -6604,19 +6793,25 @@
         <v>2016</v>
       </c>
       <c r="C150" t="s">
+        <v>558</v>
+      </c>
+      <c r="D150" t="s">
         <v>559</v>
-      </c>
-      <c r="D150" t="s">
-        <v>560</v>
       </c>
       <c r="E150" t="s">
         <v>241</v>
       </c>
       <c r="F150" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+        <v>560</v>
+      </c>
+      <c r="G150" t="s">
+        <v>669</v>
+      </c>
+      <c r="H150" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>647</v>
       </c>
@@ -6624,19 +6819,25 @@
         <v>2016</v>
       </c>
       <c r="C151" t="s">
+        <v>561</v>
+      </c>
+      <c r="D151" t="s">
         <v>562</v>
       </c>
-      <c r="D151" t="s">
+      <c r="E151" t="s">
         <v>563</v>
       </c>
-      <c r="E151" t="s">
+      <c r="F151" t="s">
         <v>564</v>
       </c>
-      <c r="F151" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G151" t="s">
+        <v>640</v>
+      </c>
+      <c r="H151" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>651</v>
       </c>
@@ -6644,19 +6845,25 @@
         <v>2016</v>
       </c>
       <c r="C152" t="s">
+        <v>565</v>
+      </c>
+      <c r="D152" t="s">
         <v>566</v>
       </c>
-      <c r="D152" t="s">
+      <c r="E152" t="s">
         <v>567</v>
       </c>
-      <c r="E152" t="s">
+      <c r="F152" t="s">
         <v>568</v>
       </c>
-      <c r="F152" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G152" t="s">
+        <v>625</v>
+      </c>
+      <c r="H152" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>652</v>
       </c>
@@ -6664,19 +6871,25 @@
         <v>2016</v>
       </c>
       <c r="C153" t="s">
+        <v>569</v>
+      </c>
+      <c r="D153" t="s">
         <v>570</v>
       </c>
-      <c r="D153" t="s">
+      <c r="E153" t="s">
         <v>571</v>
       </c>
-      <c r="E153" t="s">
+      <c r="F153" t="s">
         <v>572</v>
       </c>
-      <c r="F153" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G153" t="s">
+        <v>623</v>
+      </c>
+      <c r="H153" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>654</v>
       </c>
@@ -6684,19 +6897,25 @@
         <v>2017</v>
       </c>
       <c r="C154" t="s">
+        <v>573</v>
+      </c>
+      <c r="D154" t="s">
         <v>574</v>
       </c>
-      <c r="D154" t="s">
+      <c r="E154" t="s">
         <v>575</v>
       </c>
-      <c r="E154" t="s">
+      <c r="F154" t="s">
         <v>576</v>
       </c>
-      <c r="F154" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G154" t="s">
+        <v>670</v>
+      </c>
+      <c r="H154" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>658</v>
       </c>
@@ -6704,19 +6923,25 @@
         <v>2018</v>
       </c>
       <c r="C155" t="s">
+        <v>577</v>
+      </c>
+      <c r="D155" t="s">
         <v>578</v>
       </c>
-      <c r="D155" t="s">
+      <c r="E155" t="s">
         <v>579</v>
       </c>
-      <c r="E155" t="s">
+      <c r="F155" t="s">
         <v>580</v>
       </c>
-      <c r="F155" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G155" t="s">
+        <v>655</v>
+      </c>
+      <c r="H155" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>661</v>
       </c>
@@ -6724,33 +6949,51 @@
         <v>2018</v>
       </c>
       <c r="C156" t="s">
+        <v>581</v>
+      </c>
+      <c r="D156" t="s">
         <v>582</v>
       </c>
-      <c r="D156" t="s">
+      <c r="E156" t="s">
         <v>583</v>
       </c>
-      <c r="E156" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F156" t="s">
+        <v>661</v>
+      </c>
+      <c r="G156" t="s">
+        <v>649</v>
+      </c>
+      <c r="H156" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>667</v>
       </c>
       <c r="B157">
         <v>2019</v>
       </c>
+      <c r="C157" t="s">
+        <v>671</v>
+      </c>
       <c r="D157" t="s">
+        <v>584</v>
+      </c>
+      <c r="E157" t="s">
         <v>585</v>
       </c>
-      <c r="E157" t="s">
+      <c r="F157" t="s">
         <v>586</v>
       </c>
-      <c r="F157" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G157" t="s">
+        <v>625</v>
+      </c>
+      <c r="H157" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>675</v>
       </c>
@@ -6758,19 +7001,25 @@
         <v>2021</v>
       </c>
       <c r="C158" t="s">
+        <v>587</v>
+      </c>
+      <c r="D158" t="s">
         <v>588</v>
-      </c>
-      <c r="D158" t="s">
-        <v>589</v>
       </c>
       <c r="E158" t="s">
         <v>210</v>
       </c>
       <c r="F158" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+        <v>589</v>
+      </c>
+      <c r="G158" t="s">
+        <v>654</v>
+      </c>
+      <c r="H158" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>679</v>
       </c>
@@ -6778,19 +7027,25 @@
         <v>2022</v>
       </c>
       <c r="C159" t="s">
+        <v>590</v>
+      </c>
+      <c r="D159" t="s">
         <v>591</v>
       </c>
-      <c r="D159" t="s">
+      <c r="E159" t="s">
         <v>592</v>
       </c>
-      <c r="E159" t="s">
+      <c r="F159" t="s">
         <v>593</v>
       </c>
-      <c r="F159" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G159" t="s">
+        <v>634</v>
+      </c>
+      <c r="H159" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>680</v>
       </c>
@@ -6798,19 +7053,25 @@
         <v>2022</v>
       </c>
       <c r="C160" t="s">
+        <v>594</v>
+      </c>
+      <c r="D160" t="s">
         <v>595</v>
       </c>
-      <c r="D160" t="s">
+      <c r="E160" t="s">
         <v>596</v>
       </c>
-      <c r="E160" t="s">
+      <c r="F160" t="s">
         <v>597</v>
       </c>
-      <c r="F160" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G160" t="s">
+        <v>672</v>
+      </c>
+      <c r="H160" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>682</v>
       </c>
@@ -6818,19 +7079,25 @@
         <v>2022</v>
       </c>
       <c r="C161" t="s">
+        <v>598</v>
+      </c>
+      <c r="D161" t="s">
         <v>599</v>
-      </c>
-      <c r="D161" t="s">
-        <v>600</v>
       </c>
       <c r="E161" t="s">
         <v>210</v>
       </c>
       <c r="F161" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+      <c r="G161" t="s">
+        <v>625</v>
+      </c>
+      <c r="H161" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>683</v>
       </c>
@@ -6838,19 +7105,25 @@
         <v>2022</v>
       </c>
       <c r="C162" t="s">
+        <v>601</v>
+      </c>
+      <c r="D162" t="s">
         <v>602</v>
       </c>
-      <c r="D162" t="s">
+      <c r="E162" t="s">
+        <v>571</v>
+      </c>
+      <c r="F162" t="s">
         <v>603</v>
       </c>
-      <c r="E162" t="s">
-        <v>572</v>
-      </c>
-      <c r="F162" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G162" t="s">
+        <v>658</v>
+      </c>
+      <c r="H162" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>684</v>
       </c>
@@ -6858,19 +7131,25 @@
         <v>2023</v>
       </c>
       <c r="C163" t="s">
+        <v>604</v>
+      </c>
+      <c r="D163" t="s">
         <v>605</v>
       </c>
-      <c r="D163" t="s">
+      <c r="E163" t="s">
+        <v>542</v>
+      </c>
+      <c r="F163" t="s">
         <v>606</v>
       </c>
-      <c r="E163" t="s">
-        <v>543</v>
-      </c>
-      <c r="F163" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G163" t="s">
+        <v>636</v>
+      </c>
+      <c r="H163" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>686</v>
       </c>
@@ -6878,19 +7157,25 @@
         <v>2023</v>
       </c>
       <c r="C164" t="s">
+        <v>607</v>
+      </c>
+      <c r="D164" t="s">
         <v>608</v>
       </c>
-      <c r="D164" t="s">
+      <c r="E164" t="s">
         <v>609</v>
       </c>
-      <c r="E164" t="s">
+      <c r="F164" t="s">
         <v>610</v>
       </c>
-      <c r="F164" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G164" t="s">
+        <v>634</v>
+      </c>
+      <c r="H164" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>687</v>
       </c>
@@ -6898,19 +7183,25 @@
         <v>2023</v>
       </c>
       <c r="C165" t="s">
+        <v>611</v>
+      </c>
+      <c r="D165" t="s">
         <v>612</v>
       </c>
-      <c r="D165" t="s">
+      <c r="E165" t="s">
         <v>613</v>
       </c>
-      <c r="E165" t="s">
+      <c r="F165" t="s">
         <v>614</v>
       </c>
-      <c r="F165" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G165" t="s">
+        <v>643</v>
+      </c>
+      <c r="H165" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>692</v>
       </c>
@@ -6918,10 +7209,16 @@
         <v>2016</v>
       </c>
       <c r="C166" t="s">
+        <v>615</v>
+      </c>
+      <c r="D166" t="s">
         <v>616</v>
       </c>
-      <c r="D166" t="s">
-        <v>617</v>
+      <c r="G166" t="s">
+        <v>626</v>
+      </c>
+      <c r="H166" t="s">
+        <v>619</v>
       </c>
     </row>
   </sheetData>

--- a/input/raw_data/final_inclusion/included_paper_data.xlsx
+++ b/input/raw_data/final_inclusion/included_paper_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/final_inclusion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AC799E6F-C383-FE45-BF25-3A931EC5901F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{29F35A26-9ABA-1B49-9E15-695D4393EFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20560" yWindow="13100" windowWidth="20580" windowHeight="12240" xr2:uid="{9048CFBC-1539-6C42-8D80-67261DE2789D}"/>
   </bookViews>
@@ -2901,8 +2901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D9C861-6E8A-1F44-8AE5-524FEEA61607}">
   <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="H167" sqref="H167"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7223,5 +7223,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>